--- a/Shablon/DSO6102A.xlsx
+++ b/Shablon/DSO6102A.xlsx
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Лист3!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="180">
   <si>
     <t>Канал 1</t>
   </si>
@@ -299,12 +299,6 @@
   </si>
   <si>
     <t>Fluke 5522A</t>
-  </si>
-  <si>
-    <t>2 Опробование (п. 7.2): _______________</t>
-  </si>
-  <si>
-    <t>1  Внешний осмотр (п. 7.1): _______________</t>
   </si>
   <si>
     <t>3 Определение метрологических характеристик</t>
@@ -493,23 +487,6 @@
     <t>_pres</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Протокол № </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>10/30-05-2022/</t>
-    </r>
-  </si>
-  <si>
     <t>Осциллограф цифровой</t>
   </si>
   <si>
@@ -808,6 +785,12 @@
   </si>
   <si>
     <t>_date</t>
+  </si>
+  <si>
+    <t>1  Внешний осмотр (п. 7.1): соответствует</t>
+  </si>
+  <si>
+    <t>2 Опробование (п. 7.2): соответствует</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1112,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1249,9 +1232,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1266,48 +1246,102 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1323,6 +1357,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1332,69 +1367,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1732,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O179"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1747,18 +1727,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
     </row>
     <row r="2" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
@@ -1771,21 +1751,20 @@
       <c r="H2" s="12"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="101" t="str">
+        <f>"Протокол поверки № 10/"&amp;C79&amp;"/"&amp;C6</f>
+        <v>Протокол поверки № 10/_date/_numb</v>
+      </c>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
     </row>
     <row r="4" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
@@ -1799,29 +1778,29 @@
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="97"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="30" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
       <c r="F5" s="44" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G5" s="35"/>
       <c r="H5" s="36"/>
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="97"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="45" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
@@ -1831,10 +1810,10 @@
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="39">
         <v>2014</v>
       </c>
@@ -1861,12 +1840,12 @@
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="97"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
@@ -1876,10 +1855,10 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="98"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="41" t="s">
         <v>34</v>
       </c>
@@ -1891,10 +1870,10 @@
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="98"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="32" t="s">
         <v>25</v>
       </c>
@@ -1941,103 +1920,103 @@
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="86" t="s">
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="86"/>
-      <c r="F15" s="85" t="s">
+      <c r="E15" s="59"/>
+      <c r="F15" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="83"/>
+      <c r="G15" s="66"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="87" t="s">
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="81"/>
+      <c r="F16" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="66"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="81"/>
+      <c r="F17" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="66"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="87"/>
-      <c r="F16" s="85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="83"/>
-    </row>
-    <row r="17" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="87"/>
-      <c r="F17" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="83"/>
-    </row>
-    <row r="18" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="87"/>
-      <c r="F18" s="85" t="s">
+      <c r="E18" s="81"/>
+      <c r="F18" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="83"/>
+      <c r="G18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85" t="s">
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="83"/>
+      <c r="G19" s="66"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85" t="s">
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="83"/>
+      <c r="G20" s="66"/>
     </row>
     <row r="21" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="85">
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="67">
         <v>5</v>
       </c>
-      <c r="G21" s="83"/>
+      <c r="G21" s="66"/>
     </row>
     <row r="22" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
@@ -2075,81 +2054,81 @@
       <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86" t="s">
+      <c r="B25" s="59"/>
+      <c r="C25" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="86"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="99" t="s">
+      <c r="A26" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="100"/>
-      <c r="C26" s="88">
+      <c r="B26" s="72"/>
+      <c r="C26" s="73">
         <v>276568182</v>
       </c>
-      <c r="D26" s="89"/>
+      <c r="D26" s="74"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="101" t="s">
+      <c r="A27" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="101"/>
-      <c r="C27" s="90">
+      <c r="B27" s="76"/>
+      <c r="C27" s="77">
         <v>1601</v>
       </c>
-      <c r="D27" s="91"/>
+      <c r="D27" s="78"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="102" t="s">
+      <c r="A28" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="65" t="s">
+      <c r="B28" s="79"/>
+      <c r="C28" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="65"/>
+      <c r="D28" s="80"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
       <c r="G28" s="12"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="102" t="s">
+      <c r="A29" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="102"/>
-      <c r="C29" s="65">
+      <c r="B29" s="79"/>
+      <c r="C29" s="80">
         <v>2581902</v>
       </c>
-      <c r="D29" s="65"/>
+      <c r="D29" s="80"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="69"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
     </row>
     <row r="31" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -2165,7 +2144,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2191,7 +2170,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2216,18 +2195,18 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
+      <c r="A36" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
     </row>
     <row r="37" spans="1:15" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
@@ -2242,17 +2221,17 @@
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
+      <c r="A38" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:15" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2268,681 +2247,681 @@
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="71" t="s">
+      <c r="A40" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="71" t="s">
+      <c r="B40" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="81" t="s">
+      <c r="C40" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81" t="s">
+      <c r="D40" s="62"/>
+      <c r="E40" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="81"/>
-      <c r="G40" s="78" t="s">
+      <c r="F40" s="62"/>
+      <c r="G40" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="H40" s="78" t="s">
+      <c r="H40" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="72" t="s">
+      <c r="I40" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="73"/>
+      <c r="J40" s="90"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="71"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="75"/>
+      <c r="A41" s="88"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="91"/>
+      <c r="J41" s="92"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="71"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="74"/>
-      <c r="J42" s="75"/>
+      <c r="A42" s="88"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="92"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="71"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="75"/>
+      <c r="A43" s="88"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
+      <c r="I43" s="91"/>
+      <c r="J43" s="92"/>
     </row>
     <row r="44" spans="1:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="71"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="77"/>
+      <c r="A44" s="88"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="94"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="62"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="70"/>
     </row>
     <row r="46" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>2</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="61"/>
+      <c r="E46" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="61"/>
+      <c r="G46" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="H46" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="58"/>
-      <c r="E46" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="F46" s="58"/>
-      <c r="G46" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="H46" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="I46" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="J46" s="59"/>
+      <c r="I46" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="J46" s="84"/>
     </row>
     <row r="47" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>5</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="58"/>
-      <c r="E47" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="F47" s="58"/>
+        <v>48</v>
+      </c>
+      <c r="C47" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="61"/>
+      <c r="E47" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" s="61"/>
       <c r="G47" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="I47" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="J47" s="59"/>
+        <v>107</v>
+      </c>
+      <c r="I47" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="J47" s="84"/>
     </row>
     <row r="48" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>10</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" s="58"/>
-      <c r="E48" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="F48" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="C48" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="61"/>
+      <c r="E48" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" s="61"/>
       <c r="G48" s="28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="I48" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="J48" s="59"/>
+        <v>109</v>
+      </c>
+      <c r="I48" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="J48" s="84"/>
     </row>
     <row r="49" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>20</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" s="58"/>
-      <c r="E49" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="F49" s="58"/>
+        <v>52</v>
+      </c>
+      <c r="C49" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="61"/>
+      <c r="E49" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" s="61"/>
       <c r="G49" s="28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="I49" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="J49" s="59"/>
+        <v>111</v>
+      </c>
+      <c r="I49" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="J49" s="84"/>
     </row>
     <row r="50" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>50</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="58"/>
-      <c r="E50" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="F50" s="58"/>
+        <v>54</v>
+      </c>
+      <c r="C50" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="61"/>
+      <c r="E50" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" s="61"/>
       <c r="G50" s="28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="I50" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="J50" s="59"/>
+        <v>113</v>
+      </c>
+      <c r="I50" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="J50" s="84"/>
     </row>
     <row r="51" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>100</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="58"/>
-      <c r="E51" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="F51" s="58"/>
+        <v>56</v>
+      </c>
+      <c r="C51" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="61"/>
+      <c r="E51" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="F51" s="61"/>
       <c r="G51" s="28" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="I51" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="J51" s="59"/>
+        <v>115</v>
+      </c>
+      <c r="I51" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="J51" s="84"/>
     </row>
     <row r="52" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>200</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="D52" s="58"/>
-      <c r="E52" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="F52" s="58"/>
+        <v>58</v>
+      </c>
+      <c r="C52" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="61"/>
+      <c r="E52" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="F52" s="61"/>
       <c r="G52" s="28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="I52" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="J52" s="59"/>
+        <v>117</v>
+      </c>
+      <c r="I52" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="J52" s="84"/>
     </row>
     <row r="53" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>500</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" s="58"/>
-      <c r="E53" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="F53" s="58"/>
+        <v>60</v>
+      </c>
+      <c r="C53" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="61"/>
+      <c r="E53" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="F53" s="61"/>
       <c r="G53" s="28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="I53" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J53" s="59"/>
+        <v>119</v>
+      </c>
+      <c r="I53" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="J53" s="84"/>
     </row>
     <row r="54" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="61"/>
+      <c r="E54" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F54" s="61"/>
+      <c r="G54" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="H54" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I54" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="58"/>
-      <c r="E54" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="F54" s="58"/>
-      <c r="G54" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="H54" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="I54" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="J54" s="59"/>
+      <c r="J54" s="84"/>
     </row>
     <row r="55" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="D55" s="58"/>
-      <c r="E55" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="F55" s="58"/>
+      <c r="C55" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="61"/>
+      <c r="E55" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" s="61"/>
       <c r="G55" s="28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="I55" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="J55" s="56"/>
+        <v>123</v>
+      </c>
+      <c r="I55" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="J55" s="95"/>
     </row>
     <row r="56" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="D56" s="58"/>
-      <c r="E56" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="F56" s="58"/>
+        <v>69</v>
+      </c>
+      <c r="C56" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="61"/>
+      <c r="E56" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="F56" s="61"/>
       <c r="G56" s="28" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="I56" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="J56" s="56"/>
+        <v>125</v>
+      </c>
+      <c r="I56" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="J56" s="95"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="60" t="s">
+      <c r="A57" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="61"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="62"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="70"/>
     </row>
     <row r="58" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>2</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C58" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="61"/>
+      <c r="E58" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="F58" s="61"/>
+      <c r="G58" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="H58" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="D58" s="58"/>
-      <c r="E58" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="F58" s="58"/>
-      <c r="G58" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="H58" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="I58" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="J58" s="56"/>
+      <c r="I58" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="J58" s="95"/>
     </row>
     <row r="59" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>5</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C59" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="D59" s="58"/>
-      <c r="E59" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="F59" s="58"/>
+        <v>48</v>
+      </c>
+      <c r="C59" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="61"/>
+      <c r="E59" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59" s="61"/>
       <c r="G59" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I59" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="J59" s="56"/>
+        <v>141</v>
+      </c>
+      <c r="I59" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="J59" s="95"/>
     </row>
     <row r="60" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>10</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="D60" s="58"/>
-      <c r="E60" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="F60" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="C60" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" s="61"/>
+      <c r="E60" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="F60" s="61"/>
       <c r="G60" s="28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H60" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="I60" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="J60" s="56"/>
+        <v>143</v>
+      </c>
+      <c r="I60" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="J60" s="95"/>
     </row>
     <row r="61" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>20</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D61" s="58"/>
-      <c r="E61" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="F61" s="58"/>
+        <v>52</v>
+      </c>
+      <c r="C61" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" s="61"/>
+      <c r="E61" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="F61" s="61"/>
       <c r="G61" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="I61" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="J61" s="56"/>
+        <v>145</v>
+      </c>
+      <c r="I61" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="J61" s="95"/>
     </row>
     <row r="62" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>50</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62" s="57" t="s">
-        <v>139</v>
-      </c>
-      <c r="D62" s="58"/>
-      <c r="E62" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="F62" s="58"/>
+        <v>54</v>
+      </c>
+      <c r="C62" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="61"/>
+      <c r="E62" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="F62" s="61"/>
       <c r="G62" s="28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H62" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="I62" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="J62" s="56"/>
+        <v>147</v>
+      </c>
+      <c r="I62" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="J62" s="95"/>
     </row>
     <row r="63" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>100</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="D63" s="58"/>
-      <c r="E63" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="F63" s="58"/>
+        <v>56</v>
+      </c>
+      <c r="C63" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="61"/>
+      <c r="E63" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" s="61"/>
       <c r="G63" s="28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H63" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="I63" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="J63" s="56"/>
+        <v>149</v>
+      </c>
+      <c r="I63" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="J63" s="95"/>
     </row>
     <row r="64" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>200</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="D64" s="61"/>
+      <c r="E64" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="F64" s="61"/>
+      <c r="G64" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H64" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="D64" s="58"/>
-      <c r="E64" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="F64" s="58"/>
-      <c r="G64" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="H64" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="I64" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="J64" s="56"/>
+      <c r="I64" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="J64" s="95"/>
     </row>
     <row r="65" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>500</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C65" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="D65" s="58"/>
-      <c r="E65" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="F65" s="58"/>
+        <v>60</v>
+      </c>
+      <c r="C65" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="61"/>
+      <c r="E65" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="F65" s="61"/>
       <c r="G65" s="28" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="I65" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J65" s="56"/>
+        <v>163</v>
+      </c>
+      <c r="I65" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="J65" s="95"/>
     </row>
     <row r="66" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B66" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" s="61"/>
+      <c r="E66" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="F66" s="61"/>
+      <c r="G66" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="H66" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="I66" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="D66" s="58"/>
-      <c r="E66" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="F66" s="58"/>
-      <c r="G66" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="H66" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="I66" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="J66" s="56"/>
+      <c r="J66" s="95"/>
     </row>
     <row r="67" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C67" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="D67" s="58"/>
-      <c r="E67" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="F67" s="58"/>
+      <c r="C67" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="61"/>
+      <c r="E67" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="F67" s="61"/>
       <c r="G67" s="28" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="I67" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="J67" s="56"/>
+        <v>167</v>
+      </c>
+      <c r="I67" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="J67" s="95"/>
     </row>
     <row r="68" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C68" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="D68" s="58"/>
-      <c r="E68" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="F68" s="58"/>
+        <v>69</v>
+      </c>
+      <c r="C68" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="D68" s="61"/>
+      <c r="E68" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="F68" s="61"/>
       <c r="G68" s="28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="I68" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="J68" s="56"/>
+        <v>169</v>
+      </c>
+      <c r="I68" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="J68" s="95"/>
     </row>
     <row r="69" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
@@ -2959,18 +2938,18 @@
       <c r="N69" s="8"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="B70" s="67"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
-      <c r="J70" s="67"/>
+      <c r="A70" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70" s="86"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="86"/>
+      <c r="E70" s="86"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="H70" s="86"/>
+      <c r="I70" s="86"/>
+      <c r="J70" s="86"/>
     </row>
     <row r="71" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
@@ -2985,24 +2964,24 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="64" t="s">
+      <c r="A72" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="58"/>
+      <c r="C72" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" s="58"/>
+    </row>
+    <row r="73" spans="1:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="64"/>
-      <c r="C72" s="64" t="s">
+      <c r="B73" s="99"/>
+      <c r="C73" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D72" s="64"/>
-    </row>
-    <row r="73" spans="1:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" s="63"/>
-      <c r="C73" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="D73" s="64"/>
+      <c r="D73" s="58"/>
     </row>
     <row r="74" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="10"/>
@@ -3040,46 +3019,46 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:14" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="B77" s="92"/>
-      <c r="C77" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="D77" s="48"/>
-      <c r="E77" s="48"/>
-      <c r="F77" s="49"/>
+    <row r="77" spans="1:14" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="B77" s="54"/>
+      <c r="C77" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="48"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="1:14" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="92" t="s">
+    <row r="78" spans="1:14" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="B78" s="54"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="E78" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="F78" s="56"/>
+      <c r="G78" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="B78" s="92"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="52" t="s">
+      <c r="H78" s="52"/>
+    </row>
+    <row r="79" spans="1:14" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B79" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="E78" s="93" t="s">
+      <c r="C79" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="F78" s="94"/>
-      <c r="G78" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="H78" s="53"/>
-    </row>
-    <row r="79" spans="1:14" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B79" s="54" t="s">
-        <v>179</v>
-      </c>
-      <c r="C79" s="95" t="s">
-        <v>180</v>
-      </c>
-      <c r="D79" s="95"/>
+      <c r="D79" s="57"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -4180,60 +4159,55 @@
     <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="126">
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E40:F44"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="I63:J63"/>
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="C49:D49"/>
@@ -4258,54 +4232,59 @@
     <mergeCell ref="I50:J50"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="E55:F55"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E40:F44"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
